--- a/WorkBot/refactor/data/orders/Performance Food/CompletedOrders/Performance Food_Bakery_2025-08-06.xlsx
+++ b/WorkBot/refactor/data/orders/Performance Food/CompletedOrders/Performance Food_Bakery_2025-08-06.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,6 +502,654 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>T0948</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Almond Milk</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>35.74</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>107.22</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>FV234</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Poland Spring - Sport Top</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>33.27</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>10198</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Capers</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>67.78</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>67.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A0280</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Edamame - FRZ Shelled</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>46.12</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>46.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>NK554</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Vegan Egg</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>114.35</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>343.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>NG746</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Wrap - Garlic Herb (12')</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>29.35</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>29.35</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>CG686</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Chicken Breast - Retail (cooked)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>60.66</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>485.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>VF610</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Joyba Bubble Tea - Mango Passion Fruit</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13.63</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>40.89</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>VF608</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Joyba Bubble Tea - Green Strawberry Lemonade</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13.63</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>40.89</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>J2220</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Croissant - Butter</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>52.53</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>105.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>CF284</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Corn - FRZ</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>21.15</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>21.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>CM230</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Oat Milk</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>16.09</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>64.36</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>CF124</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Half &amp; Half</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>26.80</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>80.40</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>J2280</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Yogurt BIB</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>37.53</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>37.53</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>E3556</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Pastrami (Sliced)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>62.00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>62.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>WF580</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Corned Beef (Sliced)</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>65.91</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>65.91</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>HN732</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Avocado - Hand Scooped</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>57.63</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>115.26</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>HH264</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Muenster (Sliced)</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>48.07</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>48.07</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>NJ502</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Pepper Jack (Sliced)</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>53.03</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>106.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>AV906</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Swiss (Sliced)</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>56.88</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>113.76</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>34768</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Potato - Red Large (A)</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>20.59</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>20.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>G5010</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Carrots - Jumbo Fresh</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>30.64</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>30.64</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>FB270</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Roma - Tiramisu Plastic Cup</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>32.55</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>32.55</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>FB268</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Mousse Cup - Chocolate</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>29.75</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.25</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
